--- a/excel_wls.xlsx
+++ b/excel_wls.xlsx
@@ -444,7 +444,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FSCI_regionLatin America &amp; Caribbean</t>
+          <t>FSCI_regionLatin America and Caribbean</t>
         </is>
       </c>
       <c r="B5">
@@ -463,7 +463,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FSCI_regionNorthern Africa &amp; Western Asia</t>
+          <t>FSCI_regionNorthern Africa and Western Asia</t>
         </is>
       </c>
       <c r="B6">
